--- a/rapport journalier/Rapport journalier_yahia.xlsx
+++ b/rapport journalier/Rapport journalier_yahia.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t xml:space="preserve">DATE : </t>
   </si>
@@ -47,6 +47,18 @@
   </si>
   <si>
     <t xml:space="preserve">Faire les  Pull requests et creation des branches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07-29-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faire les footer et header qui vont  apparaitre dans toute les pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">afficher la login   popup  avec  les modal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">toujours probleme de git  et faire   difficulte a  mettre tout les partie de code ensemble</t>
   </si>
 </sst>
 </file>
@@ -386,7 +398,7 @@
   <dimension ref="B3:J151"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -478,7 +490,9 @@
       <c r="B13" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C13" s="17" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="17"/>
       <c r="E13" s="18" t="s">
         <v>1</v>
@@ -495,10 +509,19 @@
       <c r="B14" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="J14" s="8"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="9"/>
+      <c r="C15" s="0" t="s">
+        <v>11</v>
+      </c>
       <c r="J15" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -509,7 +532,9 @@
       <c r="B17" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="11"/>
+      <c r="C17" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
